--- a/data/statistical/filled_NaN_xlsx/重庆市_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/重庆市_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>43.3</v>
       </c>
       <c r="E2">
-        <v>1379.387499630451</v>
+        <v>1379.387500196695</v>
       </c>
       <c r="F2">
         <v>6360.24</v>
@@ -609,40 +609,40 @@
         <v>3.28</v>
       </c>
       <c r="H2">
-        <v>47.12289195084304</v>
+        <v>47.12289195148333</v>
       </c>
       <c r="I2">
-        <v>4.459401444773903</v>
+        <v>4.459401444730247</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-147.4303184330929</v>
       </c>
       <c r="K2">
         <v>63.73172990838066</v>
       </c>
       <c r="L2">
-        <v>0.6441376660513924</v>
+        <v>0.6441376660586684</v>
       </c>
       <c r="M2">
-        <v>375.6854914920405</v>
+        <v>375.685491441749</v>
       </c>
       <c r="N2">
-        <v>169.6568627445959</v>
+        <v>169.6568627441302</v>
       </c>
       <c r="O2">
-        <v>23.68825980555266</v>
+        <v>23.68825981160626</v>
       </c>
       <c r="P2">
-        <v>4594.193359110504</v>
+        <v>4594.193359175697</v>
       </c>
       <c r="Q2">
-        <v>97.49242375719692</v>
+        <v>95.21535212007635</v>
       </c>
       <c r="R2">
-        <v>25.51647832780145</v>
+        <v>25.51647831615992</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-15720.94060564041</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -651,43 +651,43 @@
         <v>1.487362637279148</v>
       </c>
       <c r="V2">
-        <v>9.01865841797553</v>
+        <v>9.01865842146799</v>
       </c>
       <c r="W2">
-        <v>8.477714267093688</v>
+        <v>8.477714289911091</v>
       </c>
       <c r="X2">
-        <v>5233.936274141073</v>
+        <v>5233.936274319887</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-17994.24561786652</v>
       </c>
       <c r="AA2">
-        <v>199.3688812255859</v>
+        <v>62.9565771634157</v>
       </c>
       <c r="AB2">
-        <v>291114.8569717407</v>
+        <v>196016.9186326236</v>
       </c>
       <c r="AC2">
-        <v>411336.393825531</v>
+        <v>187290.9692238183</v>
       </c>
       <c r="AD2">
-        <v>7331.452800512314</v>
+        <v>382.0559445619583</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>14138.59226319194</v>
       </c>
       <c r="AF2">
-        <v>5569.04166585207</v>
+        <v>310.3320601631985</v>
       </c>
       <c r="AG2">
-        <v>7826.134790480137</v>
+        <v>11439.85437804461</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>37902.31567876699</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>2.69</v>
       </c>
       <c r="H3">
-        <v>47.95235010342731</v>
+        <v>47.95235010398028</v>
       </c>
       <c r="I3">
         <v>4.4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-115.0297061069869</v>
       </c>
       <c r="K3">
         <v>55.4377381402839</v>
@@ -743,7 +743,7 @@
         <v>98.12</v>
       </c>
       <c r="R3">
-        <v>20.81303921644576</v>
+        <v>20.81303920503706</v>
       </c>
       <c r="S3">
         <v>31063.2</v>
@@ -767,31 +767,31 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>14853.03921699524</v>
+        <v>14853.03921222687</v>
       </c>
       <c r="AA3">
-        <v>171.3234266676009</v>
+        <v>53.19996063996218</v>
       </c>
       <c r="AB3">
-        <v>216307.093662262</v>
+        <v>206351.6981309288</v>
       </c>
       <c r="AC3">
-        <v>317257.6056900024</v>
+        <v>257030.2406193778</v>
       </c>
       <c r="AD3">
-        <v>6016.526226699352</v>
+        <v>340.7412591725588</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>12313.27321541309</v>
       </c>
       <c r="AF3">
-        <v>4863.053570732474</v>
+        <v>131.3690820816898</v>
       </c>
       <c r="AG3">
-        <v>6765.715559542179</v>
+        <v>9697.668712675571</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>61564.10513062631</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>2.85</v>
       </c>
       <c r="H4">
-        <v>48.82345980399987</v>
+        <v>48.82345980452374</v>
       </c>
       <c r="I4">
         <v>4.1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-81.96318240161054</v>
       </c>
       <c r="K4">
         <v>49.7621443770634</v>
@@ -847,7 +847,7 @@
         <v>97.86</v>
       </c>
       <c r="R4">
-        <v>16.7289705905132</v>
+        <v>16.7289705791045</v>
       </c>
       <c r="S4">
         <v>34163.4</v>
@@ -874,28 +874,28 @@
         <v>107168</v>
       </c>
       <c r="AA4">
-        <v>147.4003497315571</v>
+        <v>44.40833592120298</v>
       </c>
       <c r="AB4">
-        <v>154081.1841468811</v>
+        <v>181667.3262685934</v>
       </c>
       <c r="AC4">
-        <v>237704.1114578247</v>
+        <v>171789.8084902686</v>
       </c>
       <c r="AD4">
-        <v>4844.139612853527</v>
+        <v>312.553446918726</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>10613.948215276</v>
       </c>
       <c r="AF4">
-        <v>4207.624999448657</v>
+        <v>260.6862852392641</v>
       </c>
       <c r="AG4">
-        <v>5858.674200713634</v>
+        <v>8104.103876471519</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>56350.48800295731</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4.1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-48.23074731696397</v>
       </c>
       <c r="K5">
         <v>39.0798565051388</v>
@@ -978,28 +978,28 @@
         <v>109272</v>
       </c>
       <c r="AA5">
-        <v>127.5996504202485</v>
+        <v>58.14632702976676</v>
       </c>
       <c r="AB5">
-        <v>104437.1284332275</v>
+        <v>148359.9691277097</v>
       </c>
       <c r="AC5">
-        <v>172675.9111404419</v>
+        <v>187725.8985205187</v>
       </c>
       <c r="AD5">
-        <v>3814.292959153652</v>
+        <v>297.492507789284</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>9040.617262750864</v>
       </c>
       <c r="AF5">
-        <v>3602.755951926112</v>
+        <v>258.6242790601547</v>
       </c>
       <c r="AG5">
-        <v>5105.010714113712</v>
+        <v>6659.159869611263</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>80939.67957911368</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1082,28 +1082,28 @@
         <v>21869</v>
       </c>
       <c r="AA6">
-        <v>111.9213287299499</v>
+        <v>57.63073369101748</v>
       </c>
       <c r="AB6">
-        <v>67374.92652511597</v>
+        <v>215615.307355822</v>
       </c>
       <c r="AC6">
-        <v>122173.0047302246</v>
+        <v>251441.5647033452</v>
       </c>
       <c r="AD6">
-        <v>2926.986265540123</v>
+        <v>295.558441799134</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>7593.280357867479</v>
       </c>
       <c r="AF6">
-        <v>3048.446428194642</v>
+        <v>63.98784028749978</v>
       </c>
       <c r="AG6">
-        <v>4504.725099503994</v>
+        <v>5362.836691975594</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>53692.5999026283</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>96650</v>
       </c>
       <c r="AA7">
-        <v>100.3653846634552</v>
+        <v>61.22758582220326</v>
       </c>
       <c r="AB7">
-        <v>42894.5784034729</v>
+        <v>193245.3048055022</v>
       </c>
       <c r="AC7">
-        <v>86195.39222717285</v>
+        <v>168017.8480214929</v>
       </c>
       <c r="AD7">
-        <v>2182.219532012939</v>
+        <v>306.7512489408255</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>6271.937500596046</v>
       </c>
       <c r="AF7">
-        <v>2544.696428269148</v>
+        <v>52.15383388292768</v>
       </c>
       <c r="AG7">
-        <v>4057.817357182503</v>
+        <v>4215.134343624115</v>
       </c>
       <c r="AH7">
-        <v>5897.388997197151</v>
+        <v>32446.78463925253</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>106576</v>
       </c>
       <c r="AA8">
-        <v>92.93181822169572</v>
+        <v>47.6626284414664</v>
       </c>
       <c r="AB8">
-        <v>30996.08408355713</v>
+        <v>182709.6522762429</v>
       </c>
       <c r="AC8">
-        <v>64743.07363510132</v>
+        <v>168269.5788571443</v>
       </c>
       <c r="AD8">
-        <v>1579.992758393288</v>
+        <v>331.0709292180836</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>5076.588690936565</v>
       </c>
       <c r="AF8">
-        <v>2091.505952179432</v>
+        <v>126.150540192116</v>
       </c>
       <c r="AG8">
-        <v>3764.287487030029</v>
+        <v>3216.052824497223</v>
       </c>
       <c r="AH8">
-        <v>11585.52396047115</v>
+        <v>77205.48757168157</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>95726</v>
       </c>
       <c r="AA9">
-        <v>89.6206294009462</v>
+        <v>49.63223078338136</v>
       </c>
       <c r="AB9">
-        <v>31679.44356155396</v>
+        <v>237417.968423759</v>
       </c>
       <c r="AC9">
-        <v>57816.04895019531</v>
+        <v>258057.8250350468</v>
       </c>
       <c r="AD9">
-        <v>1120.305944979191</v>
+        <v>368.5174826160073</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>4007.233928918839</v>
       </c>
       <c r="AF9">
-        <v>1688.874999850988</v>
+        <v>293.3087421302445</v>
       </c>
       <c r="AG9">
-        <v>3624.13548886776</v>
+        <v>2365.592134594917</v>
       </c>
       <c r="AH9">
-        <v>16969.39353907108</v>
+        <v>57952.48965094621</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>255235</v>
       </c>
       <c r="AA10">
-        <v>90.43181820586324</v>
+        <v>48.85243488232877</v>
       </c>
       <c r="AB10">
-        <v>44944.65683364868</v>
+        <v>107820.4165345447</v>
       </c>
       <c r="AC10">
-        <v>65414.31817245483</v>
+        <v>220091.3687789215</v>
       </c>
       <c r="AD10">
-        <v>803.1590916514397</v>
+        <v>419.0909091569483</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>3063.873214542866</v>
       </c>
       <c r="AF10">
-        <v>1336.803571328521</v>
+        <v>149.650081405529</v>
       </c>
       <c r="AG10">
-        <v>3637.361362993717</v>
+        <v>1663.752273917198</v>
       </c>
       <c r="AH10">
-        <v>22048.99773335457</v>
+        <v>64433.10622994902</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>244644</v>
       </c>
       <c r="AA11">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="AB11">
-        <v>71776</v>
+        <v>172954</v>
       </c>
       <c r="AC11">
-        <v>86490</v>
+        <v>176281</v>
       </c>
       <c r="AD11">
-        <v>359</v>
+        <v>494</v>
       </c>
       <c r="AE11">
-        <v>108</v>
+        <v>2246.50654733181</v>
       </c>
       <c r="AF11">
-        <v>1062</v>
+        <v>237.505550931055</v>
       </c>
       <c r="AG11">
-        <v>3550</v>
+        <v>727</v>
       </c>
       <c r="AH11">
-        <v>16617</v>
+        <v>94548</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>206215</v>
       </c>
       <c r="AA12">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="AB12">
-        <v>104240</v>
+        <v>180450</v>
       </c>
       <c r="AC12">
-        <v>122362</v>
+        <v>202903</v>
       </c>
       <c r="AD12">
-        <v>658</v>
+        <v>608</v>
       </c>
       <c r="AE12">
-        <v>907</v>
+        <v>1555.13392841816</v>
       </c>
       <c r="AF12">
-        <v>568</v>
+        <v>300.216205130524</v>
       </c>
       <c r="AG12">
-        <v>1388</v>
+        <v>276</v>
       </c>
       <c r="AH12">
-        <v>39251</v>
+        <v>89157</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>227883</v>
       </c>
       <c r="AA13">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AB13">
-        <v>166156</v>
+        <v>210882</v>
       </c>
       <c r="AC13">
-        <v>172709</v>
+        <v>216672</v>
       </c>
       <c r="AD13">
-        <v>1044</v>
+        <v>593</v>
       </c>
       <c r="AE13">
-        <v>724</v>
+        <v>989.755357146263</v>
       </c>
       <c r="AF13">
-        <v>689</v>
+        <v>130</v>
       </c>
       <c r="AG13">
-        <v>7240</v>
+        <v>765</v>
       </c>
       <c r="AH13">
-        <v>38508</v>
+        <v>87268</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>191001</v>
       </c>
       <c r="AA14">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="AB14">
-        <v>184783</v>
+        <v>228277</v>
       </c>
       <c r="AC14">
-        <v>215618</v>
+        <v>238819</v>
       </c>
       <c r="AD14">
-        <v>1126</v>
+        <v>626</v>
       </c>
       <c r="AE14">
-        <v>978</v>
+        <v>365</v>
       </c>
       <c r="AF14">
-        <v>819</v>
+        <v>14</v>
       </c>
       <c r="AG14">
-        <v>3638</v>
+        <v>1391</v>
       </c>
       <c r="AH14">
-        <v>43877</v>
+        <v>66086</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>246695</v>
       </c>
       <c r="AA15">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="AB15">
-        <v>324767</v>
+        <v>201936</v>
       </c>
       <c r="AC15">
-        <v>345419</v>
+        <v>208285</v>
       </c>
       <c r="AD15">
-        <v>1305</v>
+        <v>922</v>
       </c>
       <c r="AE15">
-        <v>2101</v>
+        <v>335</v>
       </c>
       <c r="AF15">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AG15">
-        <v>6908</v>
+        <v>386</v>
       </c>
       <c r="AH15">
-        <v>52182</v>
+        <v>31018</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>226333</v>
       </c>
       <c r="AA16">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="AB16">
-        <v>442088</v>
+        <v>243612</v>
       </c>
       <c r="AC16">
-        <v>480639</v>
+        <v>241827</v>
       </c>
       <c r="AD16">
-        <v>1639</v>
+        <v>1117</v>
       </c>
       <c r="AE16">
-        <v>2643</v>
+        <v>240</v>
       </c>
       <c r="AF16">
-        <v>165</v>
+        <v>550</v>
       </c>
       <c r="AG16">
-        <v>11142</v>
+        <v>683</v>
       </c>
       <c r="AH16">
-        <v>40384</v>
+        <v>46267</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2181,7 +2181,7 @@
         <v>9.725704736541957</v>
       </c>
       <c r="L17">
-        <v>0.1357835743910982</v>
+        <v>0.1357835743983742</v>
       </c>
       <c r="M17">
         <v>6.30165773217955</v>
@@ -2226,28 +2226,28 @@
         <v>228052</v>
       </c>
       <c r="AA17">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="AB17">
-        <v>489752.5</v>
+        <v>190222</v>
       </c>
       <c r="AC17">
-        <v>530595.1</v>
+        <v>197721.1</v>
       </c>
       <c r="AD17">
-        <v>2190</v>
+        <v>1351</v>
       </c>
       <c r="AE17">
-        <v>3155</v>
+        <v>52</v>
       </c>
       <c r="AF17">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="AG17">
-        <v>10568</v>
+        <v>1143</v>
       </c>
       <c r="AH17">
-        <v>35199</v>
+        <v>71275</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>461.4</v>
       </c>
       <c r="K18">
-        <v>11.13526383764111</v>
+        <v>11.13526383717544</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.1281778715929249</v>
       </c>
       <c r="M18">
         <v>4.50523714604637</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0.6056483516949811</v>
+        <v>0.6056483516076696</v>
       </c>
       <c r="V18">
         <v>95.2</v>
       </c>
       <c r="W18">
-        <v>85.96571430331096</v>
+        <v>85.96571427816525</v>
       </c>
       <c r="X18">
         <v>181</v>
@@ -2330,28 +2330,28 @@
         <v>270003</v>
       </c>
       <c r="AA18">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="AB18">
-        <v>581475.9</v>
+        <v>59785.7</v>
       </c>
       <c r="AC18">
-        <v>557546.1</v>
+        <v>82324</v>
       </c>
       <c r="AD18">
-        <v>4179</v>
+        <v>922</v>
       </c>
       <c r="AE18">
-        <v>9615.299999999999</v>
+        <v>151.7</v>
       </c>
       <c r="AF18">
-        <v>503</v>
+        <v>198.183696751164</v>
       </c>
       <c r="AG18">
-        <v>7703.9</v>
+        <v>1493</v>
       </c>
       <c r="AH18">
-        <v>43096.1</v>
+        <v>5808.8</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>53.6</v>
       </c>
       <c r="E19">
-        <v>24175.61250055581</v>
+        <v>24175.61250002682</v>
       </c>
       <c r="F19">
         <v>25785.4626</v>
@@ -2389,7 +2389,7 @@
         <v>13.17106803576462</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-0.4208982142299647</v>
       </c>
       <c r="M19">
         <v>3.17557952992002</v>
@@ -2416,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0.3597307692762115</v>
+        <v>0.3597307691670721</v>
       </c>
       <c r="V19">
         <v>97.2</v>
       </c>
       <c r="W19">
-        <v>77.55835716193542</v>
+        <v>77.55835713399574</v>
       </c>
       <c r="X19">
         <v>15</v>
@@ -2434,28 +2434,28 @@
         <v>275195</v>
       </c>
       <c r="AA19">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="AB19">
-        <v>688633.3</v>
+        <v>100785.7</v>
       </c>
       <c r="AC19">
-        <v>776668.1</v>
+        <v>182127.5</v>
       </c>
       <c r="AD19">
-        <v>4211</v>
+        <v>1482</v>
       </c>
       <c r="AE19">
-        <v>9056.700000000001</v>
+        <v>82</v>
       </c>
       <c r="AF19">
-        <v>443.339285671711</v>
+        <v>56.8885205276977</v>
       </c>
       <c r="AG19">
-        <v>8788.700000000001</v>
+        <v>950.3</v>
       </c>
       <c r="AH19">
-        <v>75051.2</v>
+        <v>64809.3</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>53</v>
       </c>
       <c r="E20">
-        <v>25801.809559457</v>
+        <v>25801.80955888331</v>
       </c>
       <c r="F20">
         <v>26464.3901</v>
@@ -2490,10 +2490,10 @@
         <v>504.7372</v>
       </c>
       <c r="K20">
-        <v>15.83311733137816</v>
+        <v>15.83311733114533</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.742377453512745</v>
       </c>
       <c r="M20">
         <v>2.70141852169298</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0.09136489986121887</v>
+        <v>0.09136489971569972</v>
       </c>
       <c r="V20">
         <v>98.2</v>
       </c>
       <c r="W20">
-        <v>67.59213447477669</v>
+        <v>67.59213444404304</v>
       </c>
       <c r="X20">
         <v>1886</v>
@@ -2538,28 +2538,28 @@
         <v>303153</v>
       </c>
       <c r="AA20">
-        <v>362</v>
+        <v>51</v>
       </c>
       <c r="AB20">
-        <v>863596</v>
+        <v>104527</v>
       </c>
       <c r="AC20">
-        <v>940867</v>
+        <v>222182</v>
       </c>
       <c r="AD20">
-        <v>5236</v>
+        <v>1629</v>
       </c>
       <c r="AE20">
-        <v>21140</v>
+        <v>88</v>
       </c>
       <c r="AF20">
-        <v>596.8630951493979</v>
+        <v>88</v>
       </c>
       <c r="AG20">
-        <v>6057</v>
+        <v>1266</v>
       </c>
       <c r="AH20">
-        <v>41181</v>
+        <v>91359</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>53.2</v>
       </c>
       <c r="E21">
-        <v>27459.70024583489</v>
+        <v>27459.70024518669</v>
       </c>
       <c r="F21">
         <v>29849.6</v>
@@ -2597,22 +2597,22 @@
         <v>19.12141172448173</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-1.092615589441266</v>
       </c>
       <c r="M21">
         <v>1.81454663042473</v>
       </c>
       <c r="N21">
-        <v>190.1372548979707</v>
+        <v>190.1372548968066</v>
       </c>
       <c r="O21">
-        <v>89.68688724702224</v>
+        <v>89.68688723770902</v>
       </c>
       <c r="P21">
         <v>3124.2</v>
       </c>
       <c r="Q21">
-        <v>97.79186940353645</v>
+        <v>96.47376395816428</v>
       </c>
       <c r="R21">
         <v>43.1</v>
@@ -2624,16 +2624,16 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>-0.1994492567318957</v>
       </c>
       <c r="V21">
         <v>98.90000000000001</v>
       </c>
       <c r="W21">
-        <v>56.06704624183476</v>
+        <v>56.06704620737582</v>
       </c>
       <c r="X21">
-        <v>1062.740196064115</v>
+        <v>1062.740195766091</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2642,28 +2642,28 @@
         <v>117661</v>
       </c>
       <c r="AA21">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="AB21">
-        <v>1055375</v>
+        <v>185957</v>
       </c>
       <c r="AC21">
-        <v>1179269</v>
+        <v>261540</v>
       </c>
       <c r="AD21">
-        <v>6314</v>
+        <v>2102</v>
       </c>
       <c r="AE21">
-        <v>10873</v>
+        <v>1370</v>
       </c>
       <c r="AF21">
-        <v>800.9464284181595</v>
+        <v>81.9906342306827</v>
       </c>
       <c r="AG21">
-        <v>12842</v>
+        <v>5211</v>
       </c>
       <c r="AH21">
-        <v>67073</v>
+        <v>72417</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>53</v>
       </c>
       <c r="E22">
-        <v>29149.28455965966</v>
+        <v>29149.28455895185</v>
       </c>
       <c r="F22">
         <v>30573.8913</v>
@@ -2692,34 +2692,34 @@
         <v>70.95999999999999</v>
       </c>
       <c r="I22">
-        <v>3.304313725473548</v>
+        <v>3.304313725522661</v>
       </c>
       <c r="J22">
-        <v>627.1050901701674</v>
+        <v>627.1050901634153</v>
       </c>
       <c r="K22">
-        <v>23.0359512148425</v>
+        <v>23.03595121460967</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-1.471612622030079</v>
       </c>
       <c r="M22">
-        <v>22.93427509069443</v>
+        <v>22.93427514843643</v>
       </c>
       <c r="N22">
-        <v>198.9458204286639</v>
+        <v>198.9458204272669</v>
       </c>
       <c r="O22">
-        <v>104.5595575235784</v>
+        <v>104.5595575137995</v>
       </c>
       <c r="P22">
-        <v>3165.996341727674</v>
+        <v>3165.99634164013</v>
       </c>
       <c r="Q22">
-        <v>98.49247540076429</v>
+        <v>100.8695143375528</v>
       </c>
       <c r="R22">
-        <v>49.12808822211809</v>
+        <v>49.12808824051172</v>
       </c>
       <c r="S22">
         <v>277247</v>
@@ -2728,46 +2728,46 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>-0.5127117001975421</v>
       </c>
       <c r="V22">
-        <v>84.76041279896162</v>
+        <v>84.76041279430501</v>
       </c>
       <c r="W22">
-        <v>42.98309246171266</v>
+        <v>42.98309242445976</v>
       </c>
       <c r="X22">
-        <v>1392.906862691045</v>
+        <v>1392.906862333417</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>213133.2156610489</v>
+        <v>213133.2156896591</v>
       </c>
       <c r="AA22">
-        <v>443</v>
+        <v>64</v>
       </c>
       <c r="AB22">
-        <v>1181174.6</v>
+        <v>183195.7</v>
       </c>
       <c r="AC22">
-        <v>1256661.5</v>
+        <v>246084.9</v>
       </c>
       <c r="AD22">
-        <v>8524</v>
+        <v>1906</v>
       </c>
       <c r="AE22">
-        <v>12960.2</v>
+        <v>1571.0803566277</v>
       </c>
       <c r="AF22">
-        <v>1055.589285522699</v>
+        <v>72.1528944337943</v>
       </c>
       <c r="AG22">
-        <v>20683.9</v>
+        <v>5028.2</v>
       </c>
       <c r="AH22">
-        <v>57625.2</v>
+        <v>51609.7</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>54.3</v>
       </c>
       <c r="E23">
-        <v>30870.56250092387</v>
+        <v>30870.56250016391</v>
       </c>
       <c r="F23">
-        <v>32567.11256444454</v>
+        <v>32567.11256407201</v>
       </c>
       <c r="G23">
         <v>-3.32</v>
       </c>
       <c r="H23">
-        <v>73.28833823661262</v>
+        <v>73.28833823592868</v>
       </c>
       <c r="I23">
-        <v>3.307116615045743</v>
+        <v>3.307116615102132</v>
       </c>
       <c r="J23">
-        <v>672.8239300835412</v>
+        <v>672.8239300763234</v>
       </c>
       <c r="K23">
-        <v>27.57673580269329</v>
+        <v>27.57673580246046</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-1.879368551271909</v>
       </c>
       <c r="M23">
-        <v>35.78889421373606</v>
+        <v>35.78889427706599</v>
       </c>
       <c r="N23">
-        <v>208.527450974565</v>
+        <v>208.5274509729352</v>
       </c>
       <c r="O23">
-        <v>120.5721336314455</v>
+        <v>120.5721336202696</v>
       </c>
       <c r="P23">
-        <v>3045.375709140673</v>
+        <v>3045.375709045678</v>
       </c>
       <c r="Q23">
-        <v>96.20818652027941</v>
+        <v>100.8082408735106</v>
       </c>
       <c r="R23">
-        <v>56.81205880804919</v>
+        <v>56.81205882900394</v>
       </c>
       <c r="S23">
-        <v>290231.4241251945</v>
+        <v>290231.4241228104</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>-0.8484224306812393</v>
       </c>
       <c r="V23">
-        <v>78.63236120017245</v>
+        <v>78.63236119505018</v>
       </c>
       <c r="W23">
-        <v>28.34027313627303</v>
+        <v>28.34027309482917</v>
       </c>
       <c r="X23">
-        <v>1778.043859526515</v>
+        <v>1778.043859168887</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>201157.5283508301</v>
+        <v>201157.528383255</v>
       </c>
       <c r="AA23">
-        <v>476.113636364229</v>
+        <v>53.3883663676145</v>
       </c>
       <c r="AB23">
-        <v>1362341.125045776</v>
+        <v>177910.566846025</v>
       </c>
       <c r="AC23">
-        <v>1485993.563713074</v>
+        <v>169360.003208042</v>
       </c>
       <c r="AD23">
-        <v>9651.386363744736</v>
+        <v>2271.09090917185</v>
       </c>
       <c r="AE23">
-        <v>18568.04091012478</v>
+        <v>2265.64226108789</v>
       </c>
       <c r="AF23">
-        <v>1360.791666388512</v>
+        <v>207.818940631195</v>
       </c>
       <c r="AG23">
-        <v>17766.68409240246</v>
+        <v>6064.32954603434</v>
       </c>
       <c r="AH23">
-        <v>60395.70227003098</v>
+        <v>60302.7774478703</v>
       </c>
     </row>
   </sheetData>
